--- a/data/trans_orig/P36B04-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>8653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3551</v>
+        <v>3464</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19444</v>
+        <v>18296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0148139975493691</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006079345692136162</v>
+        <v>0.005929430307131916</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03328673313892308</v>
+        <v>0.03132088873613469</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -764,19 +764,19 @@
         <v>14204</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7575</v>
+        <v>7396</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22989</v>
+        <v>23316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01542039972808557</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008223312713085898</v>
+        <v>0.008028902006263978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02495681725706055</v>
+        <v>0.02531190144560489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -785,19 +785,19 @@
         <v>22858</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14350</v>
+        <v>14545</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35509</v>
+        <v>34469</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01518507968477154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00953331249580478</v>
+        <v>0.009662370109649165</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02358929514048045</v>
+        <v>0.02289847585072621</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>73581</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59834</v>
+        <v>58722</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91521</v>
+        <v>90466</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1259636449411685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1024299153596353</v>
+        <v>0.1005276570043576</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1566758386059351</v>
+        <v>0.154870679549632</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -835,19 +835,19 @@
         <v>80790</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64923</v>
+        <v>64606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101318</v>
+        <v>99188</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08770598436888241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07048042054946306</v>
+        <v>0.07013615239919965</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1099907859570746</v>
+        <v>0.1076788141085131</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>153</v>
@@ -856,19 +856,19 @@
         <v>154371</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>133808</v>
+        <v>132921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>178627</v>
+        <v>179874</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1025522277679737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08889163474993457</v>
+        <v>0.08830237874948244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1186662526566486</v>
+        <v>0.1194948160755594</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>365461</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>340589</v>
+        <v>343062</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>387598</v>
+        <v>390524</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6256382135500002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5830591342524621</v>
+        <v>0.5872938195678377</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6635350288613623</v>
+        <v>0.6685446315954939</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>571</v>
@@ -906,19 +906,19 @@
         <v>596018</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>567427</v>
+        <v>567124</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>623634</v>
+        <v>624470</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.647038884734972</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6160007962837437</v>
+        <v>0.6156717347643863</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6770195116755992</v>
+        <v>0.6779269859404233</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>927</v>
@@ -927,19 +927,19 @@
         <v>961479</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>923919</v>
+        <v>925436</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>997170</v>
+        <v>997973</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6387341539029417</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6137816363526641</v>
+        <v>0.6147898355594209</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6624440411137831</v>
+        <v>0.6629779608557951</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>128442</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>110136</v>
+        <v>108922</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151627</v>
+        <v>150522</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2198817805487135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1885440842035325</v>
+        <v>0.1864659644648328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2595729951423231</v>
+        <v>0.2576812725166909</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -977,19 +977,19 @@
         <v>212561</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>186873</v>
+        <v>186060</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>235923</v>
+        <v>238988</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2307570931779137</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2028702363501302</v>
+        <v>0.2019872763027473</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2561185423637514</v>
+        <v>0.2594463404827844</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>332</v>
@@ -998,19 +998,19 @@
         <v>341003</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>310495</v>
+        <v>310386</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>373370</v>
+        <v>373933</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2265368262844571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2062690490902302</v>
+        <v>0.2061966471723899</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2480389765892934</v>
+        <v>0.2484126499029901</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>8004</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4204</v>
+        <v>3695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15095</v>
+        <v>14634</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01370236341074876</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007197104678644648</v>
+        <v>0.006325675369019631</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02584136338260713</v>
+        <v>0.02505273816663867</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -1048,19 +1048,19 @@
         <v>17573</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10491</v>
+        <v>11119</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27220</v>
+        <v>27762</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01907763799014643</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01138903817638153</v>
+        <v>0.01207132057041122</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02954964679547277</v>
+        <v>0.03013810436851173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -1069,19 +1069,19 @@
         <v>25577</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17132</v>
+        <v>17376</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36609</v>
+        <v>36690</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01699171235985594</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01138110853671303</v>
+        <v>0.01154302075938098</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02432051786015766</v>
+        <v>0.02437414090802545</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>12270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6442</v>
+        <v>6987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21301</v>
+        <v>21361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01138355665563799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005976414125322486</v>
+        <v>0.006481795238633634</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01976194723295984</v>
+        <v>0.0198170996341226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1194,19 +1194,19 @@
         <v>13010</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6940</v>
+        <v>6879</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22579</v>
+        <v>22330</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01231308227310326</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00656826578102998</v>
+        <v>0.006510312778585607</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02137035218302933</v>
+        <v>0.02113443296967147</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1215,19 +1215,19 @@
         <v>25280</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16175</v>
+        <v>16002</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36582</v>
+        <v>37367</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01184367434064447</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007577846715376253</v>
+        <v>0.007496804682609079</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0171389022850947</v>
+        <v>0.01750634278273838</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>134026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111435</v>
+        <v>114228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>156826</v>
+        <v>157012</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1243410221208213</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1033823384451969</v>
+        <v>0.1059732750111625</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1454929287243593</v>
+        <v>0.1456656654666424</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>96</v>
@@ -1265,19 +1265,19 @@
         <v>100318</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81739</v>
+        <v>80705</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>119902</v>
+        <v>118768</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09494790417226612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07736365192247301</v>
+        <v>0.07638462831284627</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1134836788840711</v>
+        <v>0.1124102364832958</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>230</v>
@@ -1286,19 +1286,19 @@
         <v>234345</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>207142</v>
+        <v>205892</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>268018</v>
+        <v>264789</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1097913495442966</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09704698521184374</v>
+        <v>0.09646103434182968</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.125567446388334</v>
+        <v>0.1240544061002459</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>607609</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>572465</v>
+        <v>574037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>640631</v>
+        <v>640154</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5636996813807156</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5310961946346183</v>
+        <v>0.5325541980906359</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5943353585559445</v>
+        <v>0.5938930121903827</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>636</v>
@@ -1336,19 +1336,19 @@
         <v>652024</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>620517</v>
+        <v>621611</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>682881</v>
+        <v>681848</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6171188523897673</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.587299151592732</v>
+        <v>0.5883342066894079</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6463240328603889</v>
+        <v>0.6453461825101267</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1237</v>
@@ -1357,19 +1357,19 @@
         <v>1259632</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1210487</v>
+        <v>1214708</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1302203</v>
+        <v>1302330</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5901423149540377</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5671177922813095</v>
+        <v>0.5690953859517757</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.61008673658738</v>
+        <v>0.6101465374104305</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>303439</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>274476</v>
+        <v>273352</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>334238</v>
+        <v>333274</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2815113152082451</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2546412964042561</v>
+        <v>0.2535982058991013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3100845729547842</v>
+        <v>0.3091897876805505</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>267</v>
@@ -1407,19 +1407,19 @@
         <v>274889</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>248108</v>
+        <v>247137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>303977</v>
+        <v>305300</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2601733726133692</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2348255768679895</v>
+        <v>0.2339074106116821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.287703937352179</v>
+        <v>0.2889562216586787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>555</v>
@@ -1428,19 +1428,19 @@
         <v>578328</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>539762</v>
+        <v>538658</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>619660</v>
+        <v>620714</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2709489761343333</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2528803286379276</v>
+        <v>0.2523633997309084</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2903130147726011</v>
+        <v>0.2908070089393566</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>20549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12661</v>
+        <v>12802</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30445</v>
+        <v>30654</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01906442463458002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01174593579505802</v>
+        <v>0.01187686387271475</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0282451847496942</v>
+        <v>0.02843904982745906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1478,19 +1478,19 @@
         <v>16320</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9504</v>
+        <v>9855</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26712</v>
+        <v>26653</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01544678855149414</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008994996291729129</v>
+        <v>0.009327809122466771</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02528220663686545</v>
+        <v>0.0252265861234797</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -1499,19 +1499,19 @@
         <v>36870</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26645</v>
+        <v>26610</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51527</v>
+        <v>50203</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01727368502668796</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01248348472309153</v>
+        <v>0.01246670038165592</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02414052276791203</v>
+        <v>0.02352024786720588</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>13885</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7540</v>
+        <v>7752</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22606</v>
+        <v>22850</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0123793859159224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006722530254253131</v>
+        <v>0.006911361066071156</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02015499643594805</v>
+        <v>0.02037297256881439</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1624,19 +1624,19 @@
         <v>9503</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4376</v>
+        <v>4558</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17296</v>
+        <v>18432</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009571600023977229</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004407322741565348</v>
+        <v>0.004590338180172531</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0174203720522921</v>
+        <v>0.01856381747000678</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1645,19 +1645,19 @@
         <v>23388</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14868</v>
+        <v>15125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34179</v>
+        <v>34518</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01106095229782343</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007031476519082671</v>
+        <v>0.007152951757057391</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01616436091489049</v>
+        <v>0.01632473833170443</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>153231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131410</v>
+        <v>129704</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>179130</v>
+        <v>178754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.136619079344333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1171637192621308</v>
+        <v>0.1156429237809272</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.159710640834657</v>
+        <v>0.159375054583916</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -1695,19 +1695,19 @@
         <v>75270</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60479</v>
+        <v>60239</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96549</v>
+        <v>92536</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07580943399430624</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06091222218522338</v>
+        <v>0.06067120925585495</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09724111888358716</v>
+        <v>0.0931993925552501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>225</v>
@@ -1716,19 +1716,19 @@
         <v>228501</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>199337</v>
+        <v>200727</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>257464</v>
+        <v>259075</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.108065092744376</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09427269267462832</v>
+        <v>0.09493003662257089</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1217627774307681</v>
+        <v>0.1225243313092807</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>677060</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>643793</v>
+        <v>642067</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>714218</v>
+        <v>707136</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6036588234297822</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5739979560340044</v>
+        <v>0.572459430113785</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6367882305462942</v>
+        <v>0.6304743419700698</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>623</v>
@@ -1766,19 +1766,19 @@
         <v>630492</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>601571</v>
+        <v>598379</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>662901</v>
+        <v>659655</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6350132494327865</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6058850731206014</v>
+        <v>0.602670460679174</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6676547101666794</v>
+        <v>0.6643858124045802</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1285</v>
@@ -1787,19 +1787,19 @@
         <v>1307552</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1261696</v>
+        <v>1261796</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1356510</v>
+        <v>1352060</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6183817157404629</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5966951683687752</v>
+        <v>0.5967423757455222</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.641535539448037</v>
+        <v>0.6394308682219225</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>264851</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>233656</v>
+        <v>235494</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>293961</v>
+        <v>293910</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.236138341958224</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.208325194574681</v>
+        <v>0.2099638694870044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2620924990812408</v>
+        <v>0.2620467361283045</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>265</v>
@@ -1837,19 +1837,19 @@
         <v>267890</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>239462</v>
+        <v>242968</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>296040</v>
+        <v>296585</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2698115067094221</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2411787605366792</v>
+        <v>0.2447104862018177</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.298163140159206</v>
+        <v>0.2987120609235452</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>528</v>
@@ -1858,19 +1858,19 @@
         <v>532742</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>491870</v>
+        <v>492344</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>571420</v>
+        <v>574280</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2519500292250932</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2326203288398892</v>
+        <v>0.2328448269757336</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2702420532650035</v>
+        <v>0.2715946580643519</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>12567</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6739</v>
+        <v>7287</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20353</v>
+        <v>21769</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01120436935173849</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006008344773176987</v>
+        <v>0.006497363661954594</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01814620535048296</v>
+        <v>0.0194087750393241</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1908,19 +1908,19 @@
         <v>9724</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4924</v>
+        <v>4845</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17260</v>
+        <v>16786</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009794209839508036</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004959523074087961</v>
+        <v>0.004880229720853206</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01738360353734338</v>
+        <v>0.01690619541464257</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -1929,19 +1929,19 @@
         <v>22291</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14144</v>
+        <v>14394</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32777</v>
+        <v>31821</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0105422099922445</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006688932057245848</v>
+        <v>0.006807529615646533</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01550124132552502</v>
+        <v>0.01504924650504638</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>3469</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9491</v>
+        <v>9746</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007772620136635026</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001994076046379448</v>
+        <v>0.001974015637868134</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02126524867522556</v>
+        <v>0.02183628300481825</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2054,19 +2054,19 @@
         <v>9737</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4263</v>
+        <v>5121</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16937</v>
+        <v>16869</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02854060947841398</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01249519834151671</v>
+        <v>0.01501066851729086</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04964608422495671</v>
+        <v>0.049447703334362</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2075,19 +2075,19 @@
         <v>13206</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7294</v>
+        <v>7389</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21956</v>
+        <v>21775</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01676998023117036</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009262032924973629</v>
+        <v>0.009383159255749099</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02788184744135147</v>
+        <v>0.02765190698235729</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>52817</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>39507</v>
+        <v>39885</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>67792</v>
+        <v>68613</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1183399321678332</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08851867138098153</v>
+        <v>0.08936450894915472</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1518933573822793</v>
+        <v>0.1537320004913736</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -2125,19 +2125,19 @@
         <v>35395</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>25555</v>
+        <v>25559</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>46451</v>
+        <v>48289</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1037483812271142</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.074905415203812</v>
+        <v>0.07491907429638513</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1361567136605743</v>
+        <v>0.1415429313880849</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>86</v>
@@ -2146,19 +2146,19 @@
         <v>88211</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>71642</v>
+        <v>72335</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>106354</v>
+        <v>108868</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1120184035888823</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0909776275953517</v>
+        <v>0.09185745104169699</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1350570898953318</v>
+        <v>0.1382502240407468</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>259946</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>239549</v>
+        <v>237296</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>281397</v>
+        <v>282164</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5824285644523433</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5367274405033513</v>
+        <v>0.5316799105233153</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6304921839117157</v>
+        <v>0.6322087638374375</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>202</v>
@@ -2196,19 +2196,19 @@
         <v>204377</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>188659</v>
+        <v>187749</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>221378</v>
+        <v>222957</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5990691328285828</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5529958134500615</v>
+        <v>0.5503285680410518</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6489006542690517</v>
+        <v>0.653530812337955</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>457</v>
@@ -2217,19 +2217,19 @@
         <v>464323</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>435995</v>
+        <v>434526</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>491128</v>
+        <v>492206</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5896377932031289</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5536646654080666</v>
+        <v>0.5517992831559009</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6236765271357388</v>
+        <v>0.6250456367127458</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>124887</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106005</v>
+        <v>106134</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>144451</v>
+        <v>145926</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2798197886485728</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2375130923585465</v>
+        <v>0.2378006189736531</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3236543223509996</v>
+        <v>0.3269591439863388</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>88</v>
@@ -2267,19 +2267,19 @@
         <v>88681</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>73065</v>
+        <v>72720</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>103952</v>
+        <v>105989</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2599410400269634</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2141687104396046</v>
+        <v>0.2131568137101518</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3047027421413128</v>
+        <v>0.3106738598922005</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>210</v>
@@ -2288,19 +2288,19 @@
         <v>213568</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>189693</v>
+        <v>189176</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>238440</v>
+        <v>241399</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2712076761983048</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2408881879493333</v>
+        <v>0.2402314123171946</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3027913884388411</v>
+        <v>0.3065492018697826</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>5195</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1768</v>
+        <v>1775</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12069</v>
+        <v>13074</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01163909459461563</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003961272254266813</v>
+        <v>0.003977908584937408</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02704243298708717</v>
+        <v>0.02929413332696652</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2338,19 +2338,19 @@
         <v>2968</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7917</v>
+        <v>7990</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008700836438925651</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002836082395113436</v>
+        <v>0.002819785033303187</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02320636018407569</v>
+        <v>0.02342159092296399</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2359,19 +2359,19 @@
         <v>8163</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3504</v>
+        <v>3788</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15675</v>
+        <v>16061</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01036614677851359</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004449671356846313</v>
+        <v>0.004810309819239928</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0199057458791861</v>
+        <v>0.02039590833120689</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>38277</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27132</v>
+        <v>26313</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52590</v>
+        <v>52927</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01185079966152888</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008400183451860097</v>
+        <v>0.008146469505808843</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01628206122899365</v>
+        <v>0.01638622821440135</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -2484,19 +2484,19 @@
         <v>46454</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33356</v>
+        <v>34037</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60854</v>
+        <v>61571</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01402712892788826</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01007200185741562</v>
+        <v>0.01027779095401507</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01837509274841542</v>
+        <v>0.01859168625778686</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>80</v>
@@ -2505,19 +2505,19 @@
         <v>84732</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68123</v>
+        <v>67066</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>105556</v>
+        <v>105416</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01295257159845968</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01041370893919621</v>
+        <v>0.01025208029133749</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01613585306560277</v>
+        <v>0.01611451146066557</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>413655</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>377007</v>
+        <v>376662</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>452249</v>
+        <v>451235</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1280687879048241</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1167223693732961</v>
+        <v>0.1166156297354655</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1400177134894972</v>
+        <v>0.1397038003069778</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>286</v>
@@ -2555,19 +2555,19 @@
         <v>291773</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>259382</v>
+        <v>260321</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>324677</v>
+        <v>326885</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08810235469537725</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07832188793898084</v>
+        <v>0.07860536111604181</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09803813488710661</v>
+        <v>0.09870478972240558</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>694</v>
@@ -2576,19 +2576,19 @@
         <v>705428</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>653592</v>
+        <v>655554</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>759349</v>
+        <v>756538</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1078356847572252</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09991184524845603</v>
+        <v>0.1002117205466645</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1160784932454374</v>
+        <v>0.115648671816456</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1910076</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1850494</v>
+        <v>1853645</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1967273</v>
+        <v>1962552</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5913651100058878</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5729183891236964</v>
+        <v>0.5738941641012834</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6090737206964529</v>
+        <v>0.6076118272227614</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2032</v>
@@ -2626,19 +2626,19 @@
         <v>2082911</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2025407</v>
+        <v>2028927</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2136756</v>
+        <v>2138539</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6289464307413065</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6115828236034591</v>
+        <v>0.6126457106185405</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6452051666797066</v>
+        <v>0.6457437901463733</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3906</v>
@@ -2647,19 +2647,19 @@
         <v>3992986</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3904153</v>
+        <v>3910453</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4067119</v>
+        <v>4069944</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6103907442144214</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5968112108170525</v>
+        <v>0.5977741553036559</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6217230223621821</v>
+        <v>0.6221548569143645</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>821620</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>771033</v>
+        <v>770905</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>871136</v>
+        <v>870955</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2543760450447534</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2387142344274366</v>
+        <v>0.238674447202466</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2697063574423726</v>
+        <v>0.269650306942555</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>823</v>
@@ -2697,19 +2697,19 @@
         <v>844022</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>792512</v>
+        <v>799855</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>894976</v>
+        <v>895693</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2548569982640204</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.239303375132369</v>
+        <v>0.2415207130287792</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2702429961527463</v>
+        <v>0.270459414121955</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1625</v>
@@ -2718,19 +2718,19 @@
         <v>1665642</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1593789</v>
+        <v>1599586</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1743591</v>
+        <v>1742314</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2546195287712997</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2436356813691693</v>
+        <v>0.2445219089429131</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2665353456483227</v>
+        <v>0.2663401502233072</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>46315</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>33783</v>
+        <v>33637</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>60983</v>
+        <v>59813</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0143392573830058</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01045938797687363</v>
+        <v>0.01041406742503025</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01888065515895847</v>
+        <v>0.01851838999311886</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>46</v>
@@ -2768,19 +2768,19 @@
         <v>46587</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>34731</v>
+        <v>34415</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>61684</v>
+        <v>62126</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01406708737140754</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01048710289090469</v>
+        <v>0.01039192766088953</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0186258809436484</v>
+        <v>0.01875923595250227</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>93</v>
@@ -2789,19 +2789,19 @@
         <v>92902</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>72963</v>
+        <v>75664</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>111252</v>
+        <v>115166</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01420147065859405</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01115350355992161</v>
+        <v>0.01156644179303127</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0170065626373127</v>
+        <v>0.01760498449159527</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>20622</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12788</v>
+        <v>12307</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31453</v>
+        <v>30393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01984408884803606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01230491002587485</v>
+        <v>0.01184241021233127</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03026554193806497</v>
+        <v>0.0292462886004817</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -3154,19 +3154,19 @@
         <v>24029</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15156</v>
+        <v>16028</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36167</v>
+        <v>37167</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02156032024544318</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0135986730697936</v>
+        <v>0.01438106486067718</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03245124528519525</v>
+        <v>0.03334853562609291</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -3175,19 +3175,19 @@
         <v>44652</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32176</v>
+        <v>32413</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59229</v>
+        <v>60270</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0207322043557229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01493944252119591</v>
+        <v>0.01504976913446553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02750065177066171</v>
+        <v>0.02798393004179493</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>102375</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83146</v>
+        <v>84906</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123446</v>
+        <v>124335</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09851085064205509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08000769312905862</v>
+        <v>0.08170184701171673</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1187866091883056</v>
+        <v>0.1196422941854782</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -3225,19 +3225,19 @@
         <v>100759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>82968</v>
+        <v>82961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>120159</v>
+        <v>120621</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0904056116778483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07444340422520714</v>
+        <v>0.07443683873334715</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.107812531479937</v>
+        <v>0.1082271537479662</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>189</v>
@@ -3246,19 +3246,19 @@
         <v>203133</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>178212</v>
+        <v>175024</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>234510</v>
+        <v>231184</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09431655118541128</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08274559429654915</v>
+        <v>0.08126542812135999</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1088850058720716</v>
+        <v>0.1073406555216366</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>644580</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>612183</v>
+        <v>612364</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>674783</v>
+        <v>674362</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6202524819581281</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.58907807979608</v>
+        <v>0.5892524641662976</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6493153671093936</v>
+        <v>0.6489101311888964</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>647</v>
@@ -3296,19 +3296,19 @@
         <v>703718</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>669558</v>
+        <v>669936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>734035</v>
+        <v>733966</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6314115210624063</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.600761249662049</v>
+        <v>0.6011002356171509</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.658613199089966</v>
+        <v>0.6585516290271333</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1250</v>
@@ -3317,19 +3317,19 @@
         <v>1348298</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1298594</v>
+        <v>1302178</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1394892</v>
+        <v>1396362</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6260270620610012</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6029487372028586</v>
+        <v>0.6046131120107537</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6476608812071571</v>
+        <v>0.6483434438174654</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>243448</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>212593</v>
+        <v>215756</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>272524</v>
+        <v>271629</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2342598893773157</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2045692263677379</v>
+        <v>0.2076125948889505</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2622388929356885</v>
+        <v>0.261377132425649</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>222</v>
@@ -3367,19 +3367,19 @@
         <v>238421</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>213089</v>
+        <v>211888</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>268790</v>
+        <v>267053</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2139230625325366</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1911942444751533</v>
+        <v>0.1901169623214858</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2411722487498802</v>
+        <v>0.2396131641594752</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>450</v>
@@ -3388,19 +3388,19 @@
         <v>481869</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>443798</v>
+        <v>444443</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>522277</v>
+        <v>523718</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2237359872244489</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2060595230119687</v>
+        <v>0.2063589066041619</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2424980806944274</v>
+        <v>0.2431668718958885</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>28197</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17776</v>
+        <v>18946</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39772</v>
+        <v>40458</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0271326891744651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01710509331373119</v>
+        <v>0.01823066041546342</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03827134678294</v>
+        <v>0.03893133016473684</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -3438,19 +3438,19 @@
         <v>47589</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34900</v>
+        <v>35319</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63035</v>
+        <v>64152</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04269948448176562</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03131392326766796</v>
+        <v>0.03168980934390623</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05655801135975343</v>
+        <v>0.05756057164610225</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>70</v>
@@ -3459,19 +3459,19 @@
         <v>75786</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>59822</v>
+        <v>60221</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>95531</v>
+        <v>95437</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03518819517341569</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02777568776720485</v>
+        <v>0.02796131801902721</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04435583408221862</v>
+        <v>0.04431230220457304</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>11161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6036</v>
+        <v>5793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20038</v>
+        <v>19577</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01143771661442439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006185248498142312</v>
+        <v>0.005936413559323237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02053495532876682</v>
+        <v>0.02006266365354955</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3584,19 +3584,19 @@
         <v>12458</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6296</v>
+        <v>6178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21606</v>
+        <v>20629</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0114053089626267</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005763912716796484</v>
+        <v>0.005655506861624539</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01978017627534732</v>
+        <v>0.01888555210790883</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3605,19 +3605,19 @@
         <v>23619</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15419</v>
+        <v>15385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35382</v>
+        <v>35863</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01142059988415519</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00745576246505491</v>
+        <v>0.007439258797960389</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01710825086423688</v>
+        <v>0.01734089987896395</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>73288</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>58547</v>
+        <v>59190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>91131</v>
+        <v>91035</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07510536406030301</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.059998595303807</v>
+        <v>0.06065732397699614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09339101462674378</v>
+        <v>0.09329231069251809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>92</v>
@@ -3655,19 +3655,19 @@
         <v>96479</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79108</v>
+        <v>79341</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116273</v>
+        <v>116394</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08832507902385758</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07242212642443899</v>
+        <v>0.07263556383533799</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.106446048919481</v>
+        <v>0.106556808463778</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>165</v>
@@ -3676,19 +3676,19 @@
         <v>169767</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>147256</v>
+        <v>145117</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>194988</v>
+        <v>195214</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08208761308838713</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07120249422091865</v>
+        <v>0.07016831352919387</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09428243154006997</v>
+        <v>0.09439194270269746</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>593129</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>562119</v>
+        <v>560089</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>622876</v>
+        <v>623268</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6078360884729687</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5760575358077796</v>
+        <v>0.5739773266691882</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.638320545253704</v>
+        <v>0.6387227241704984</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>607</v>
@@ -3726,19 +3726,19 @@
         <v>651061</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>616891</v>
+        <v>616823</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>681683</v>
+        <v>681733</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5960349014396851</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5647532167732392</v>
+        <v>0.5646906953210216</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6240689996383136</v>
+        <v>0.6241145524930168</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1167</v>
@@ -3747,19 +3747,19 @@
         <v>1244189</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1200473</v>
+        <v>1198933</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1292436</v>
+        <v>1291660</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6016030625022463</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5804648760283543</v>
+        <v>0.579720546176783</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6249318023456714</v>
+        <v>0.6245567081742911</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>275248</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>246571</v>
+        <v>246813</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>302773</v>
+        <v>304819</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2820725360006544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.252684508150169</v>
+        <v>0.2529333472438079</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3102802540240493</v>
+        <v>0.3123768065051737</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>282</v>
@@ -3797,19 +3797,19 @@
         <v>304153</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>275499</v>
+        <v>274735</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>335313</v>
+        <v>335765</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2784466807377416</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2522143487661425</v>
+        <v>0.2515149209551391</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3069731990003497</v>
+        <v>0.3073867181456102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>539</v>
@@ -3818,19 +3818,19 @@
         <v>579400</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>535560</v>
+        <v>536297</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>624042</v>
+        <v>621499</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2801574701724394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2589595384750962</v>
+        <v>0.2593160482433493</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3017431524955373</v>
+        <v>0.300513473025869</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>22979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15031</v>
+        <v>14142</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36682</v>
+        <v>33575</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02354829485164956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01540356993950568</v>
+        <v>0.01449246970056791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03759108925902495</v>
+        <v>0.03440701732567931</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -3868,19 +3868,19 @@
         <v>28169</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18894</v>
+        <v>19386</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40658</v>
+        <v>41266</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.025788029836089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01729738094423378</v>
+        <v>0.01774775312555989</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03722147890386369</v>
+        <v>0.03777827028694852</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>48</v>
@@ -3889,19 +3889,19 @@
         <v>51147</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38927</v>
+        <v>38636</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68423</v>
+        <v>69212</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02473125435277207</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01882249140398182</v>
+        <v>0.01868190288345015</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03308470191055071</v>
+        <v>0.03346591804761606</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>10594</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4790</v>
+        <v>4848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18327</v>
+        <v>19370</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01196911530667238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00541165564841327</v>
+        <v>0.005477817981369075</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02070576181746031</v>
+        <v>0.02188422820794144</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4014,19 +4014,19 @@
         <v>15594</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8119</v>
+        <v>9111</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24619</v>
+        <v>24616</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01794047647843222</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009340239276323013</v>
+        <v>0.01048229802227671</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02832336291095714</v>
+        <v>0.02831988092652431</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -4035,19 +4035,19 @@
         <v>26188</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17190</v>
+        <v>17971</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38659</v>
+        <v>40152</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01492774446701694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009798778359752496</v>
+        <v>0.01024368262535094</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02203649340137908</v>
+        <v>0.02288743791708291</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>73149</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57854</v>
+        <v>57664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>91692</v>
+        <v>89888</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0826430212046548</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06536360299336158</v>
+        <v>0.06514842180120739</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1035932177575465</v>
+        <v>0.1015557293813392</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -4085,19 +4085,19 @@
         <v>65127</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50665</v>
+        <v>51996</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83431</v>
+        <v>82480</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07492615173026899</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05828806638896486</v>
+        <v>0.05981858849204874</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09598404866212271</v>
+        <v>0.09488994446059069</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>132</v>
@@ -4106,19 +4106,19 @@
         <v>138276</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>116750</v>
+        <v>114111</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>162856</v>
+        <v>163600</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07881954538452418</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06654964526012604</v>
+        <v>0.06504493658795463</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09283074083595978</v>
+        <v>0.09325442612903766</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>550101</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>519422</v>
+        <v>517462</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>579972</v>
+        <v>577112</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6215020444563482</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5868417355037621</v>
+        <v>0.5846265120158832</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.655250342555426</v>
+        <v>0.652019735039932</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>513</v>
@@ -4156,19 +4156,19 @@
         <v>546778</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>517912</v>
+        <v>516154</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>577300</v>
+        <v>575613</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6290439545761445</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5958356811176141</v>
+        <v>0.5938123822460113</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.664158749214049</v>
+        <v>0.6622176118157447</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1030</v>
@@ -4177,19 +4177,19 @@
         <v>1096878</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1050873</v>
+        <v>1055031</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1135937</v>
+        <v>1137545</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6252388331990313</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5990150625173452</v>
+        <v>0.6013848958257098</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6475031347442367</v>
+        <v>0.6484195233411917</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>239675</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>212720</v>
+        <v>214014</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>266703</v>
+        <v>268610</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.270784507864614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2403309145730932</v>
+        <v>0.2417924459166975</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3013203544088946</v>
+        <v>0.3034742582906715</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>209</v>
@@ -4227,19 +4227,19 @@
         <v>224382</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>198238</v>
+        <v>196193</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>251385</v>
+        <v>251376</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2581414778466314</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.228064372796717</v>
+        <v>0.2257119412534757</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2892079900570537</v>
+        <v>0.2891967657657173</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>430</v>
@@ -4248,19 +4248,19 @@
         <v>464057</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>429913</v>
+        <v>422454</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>505454</v>
+        <v>501871</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2645202682364338</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2450574732707379</v>
+        <v>0.24080582183229</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2881169953465803</v>
+        <v>0.2860745004347086</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>11596</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6157</v>
+        <v>5865</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20119</v>
+        <v>19456</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01310131116771063</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006955634316747322</v>
+        <v>0.006625754019442868</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02273075735481473</v>
+        <v>0.02198188453186831</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -4298,19 +4298,19 @@
         <v>17339</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10908</v>
+        <v>10205</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27122</v>
+        <v>27613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01994793936852292</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01254890397243909</v>
+        <v>0.0117399171467923</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03120258031233734</v>
+        <v>0.03176734445987626</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>29</v>
@@ -4319,19 +4319,19 @@
         <v>28935</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19322</v>
+        <v>19580</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41133</v>
+        <v>40416</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01649360871299389</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01101382609619211</v>
+        <v>0.01116099602608513</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02344651695326304</v>
+        <v>0.02303753171141156</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>3801</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9532</v>
+        <v>9595</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007586216686217744</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00198017275052846</v>
+        <v>0.001964246270609674</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01902698687937139</v>
+        <v>0.01915279857373875</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4444,19 +4444,19 @@
         <v>10761</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5778</v>
+        <v>5033</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19977</v>
+        <v>18356</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02376836607441914</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01276177704158424</v>
+        <v>0.01111647750765501</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04412577765474315</v>
+        <v>0.0405448081777345</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -4465,19 +4465,19 @@
         <v>14561</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8675</v>
+        <v>7931</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25142</v>
+        <v>24036</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01526791067552726</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009095383196422516</v>
+        <v>0.008315555984674178</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02636181354094114</v>
+        <v>0.02520230487987885</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>31870</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21022</v>
+        <v>22281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47828</v>
+        <v>46597</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06361407521913251</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04196059460193901</v>
+        <v>0.04447463585036034</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09546692180604907</v>
+        <v>0.09300984886203781</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>43</v>
@@ -4515,19 +4515,19 @@
         <v>49549</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36710</v>
+        <v>36245</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>64882</v>
+        <v>65945</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.109444285301125</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08108430133514323</v>
+        <v>0.08005797822259686</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1433118467560552</v>
+        <v>0.1456580867704604</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>70</v>
@@ -4536,19 +4536,19 @@
         <v>81419</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>65417</v>
+        <v>62655</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>100660</v>
+        <v>99618</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08536975432393182</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06859060412792452</v>
+        <v>0.06569528698640106</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1055443256253175</v>
+        <v>0.104451545913559</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>290668</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>266758</v>
+        <v>265210</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>313049</v>
+        <v>313485</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5801861468155911</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5324611670728144</v>
+        <v>0.5293705777844274</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6248598270111139</v>
+        <v>0.6257291997829141</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>235</v>
@@ -4586,19 +4586,19 @@
         <v>256834</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>234644</v>
+        <v>235726</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>278297</v>
+        <v>278318</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5672940277365471</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5182810093172742</v>
+        <v>0.5206701623586228</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.614700405397726</v>
+        <v>0.6147470699890429</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>504</v>
@@ -4607,19 +4607,19 @@
         <v>547502</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>517495</v>
+        <v>516194</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>579600</v>
+        <v>578212</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5740662358406522</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5426035998684938</v>
+        <v>0.5412390972708598</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6077215555074842</v>
+        <v>0.6062659141668475</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>159225</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>137569</v>
+        <v>138254</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>181418</v>
+        <v>181012</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3178203808848783</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2745944291935678</v>
+        <v>0.2759607608814545</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3621178769954616</v>
+        <v>0.3613086372878947</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>116</v>
@@ -4657,19 +4657,19 @@
         <v>127303</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>106607</v>
+        <v>108672</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>149355</v>
+        <v>149509</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2811870360083281</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2354720293203927</v>
+        <v>0.2400330499429568</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3298940314092149</v>
+        <v>0.3302354562366147</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>265</v>
@@ -4678,19 +4678,19 @@
         <v>286528</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>256353</v>
+        <v>258571</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>316175</v>
+        <v>315772</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3004304694215918</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2687913174252258</v>
+        <v>0.2711162481138593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3315157080382304</v>
+        <v>0.3310926115452045</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>15427</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8190</v>
+        <v>8132</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27813</v>
+        <v>27386</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03079318039418033</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01634800931250101</v>
+        <v>0.01623224888758088</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05551577717043346</v>
+        <v>0.05466451231673038</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -4728,19 +4728,19 @@
         <v>8288</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4012</v>
+        <v>3999</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16929</v>
+        <v>15314</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01830628487958055</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008862487571229047</v>
+        <v>0.008831912375524676</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03739321450384866</v>
+        <v>0.03382528776366379</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -4749,19 +4749,19 @@
         <v>23715</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14907</v>
+        <v>14725</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36915</v>
+        <v>36215</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02486562973829688</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01563068965634417</v>
+        <v>0.01543989400917587</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03870605712404018</v>
+        <v>0.03797253077053339</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>46178</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>35098</v>
+        <v>34219</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>61726</v>
+        <v>60535</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01357725951168898</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01031943022885656</v>
+        <v>0.01006106894304407</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01814878825281707</v>
+        <v>0.01779857897015773</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -4874,19 +4874,19 @@
         <v>62843</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>48236</v>
+        <v>48457</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>83630</v>
+        <v>82406</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01780852679521558</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01366937856402822</v>
+        <v>0.01373200391068137</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02369926274040449</v>
+        <v>0.02335260761793154</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>100</v>
@@ -4895,19 +4895,19 @@
         <v>109021</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>87947</v>
+        <v>87946</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>131495</v>
+        <v>131879</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0157318665106148</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01269086874604974</v>
+        <v>0.01269072216250362</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01897491231813917</v>
+        <v>0.01903044075020417</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>280681</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>247668</v>
+        <v>249345</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>316056</v>
+        <v>317354</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08252588044576342</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07281941565056389</v>
+        <v>0.07331249664724841</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09292684241776034</v>
+        <v>0.09330835100167412</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>290</v>
@@ -4945,19 +4945,19 @@
         <v>311914</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>280252</v>
+        <v>276993</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>348472</v>
+        <v>348877</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08839127307785906</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07941869536334979</v>
+        <v>0.07849510241498059</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09875102006559831</v>
+        <v>0.09886572695187779</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>556</v>
@@ -4966,19 +4966,19 @@
         <v>592596</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>543646</v>
+        <v>547095</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>642035</v>
+        <v>642196</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08551260172091488</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07844907560869205</v>
+        <v>0.07894669885572274</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09264671709544035</v>
+        <v>0.09267002426224566</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>2078477</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2025156</v>
+        <v>2022676</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2143772</v>
+        <v>2134578</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6111135160723511</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5954359937369287</v>
+        <v>0.5947069038525282</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6303114815800976</v>
+        <v>0.6276082356747517</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2002</v>
@@ -5016,19 +5016,19 @@
         <v>2158391</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2097877</v>
+        <v>2096471</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2215984</v>
+        <v>2212967</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.611651563145384</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5945028395602348</v>
+        <v>0.5941045358714827</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6279724805043121</v>
+        <v>0.6271173964605681</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3951</v>
@@ -5037,19 +5037,19 @@
         <v>4236868</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4153326</v>
+        <v>4153375</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4322128</v>
+        <v>4319804</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6113874954529073</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5993322633585655</v>
+        <v>0.5993392688418775</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6236905875769141</v>
+        <v>0.6233552840674413</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>917596</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>863150</v>
+        <v>865077</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>973201</v>
+        <v>971683</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2697913881330596</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2537831868834377</v>
+        <v>0.2543498099606483</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2861404583882516</v>
+        <v>0.2856940560244525</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>829</v>
@@ -5087,19 +5087,19 @@
         <v>894259</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>842021</v>
+        <v>844424</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>945634</v>
+        <v>946192</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2534178097000989</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2386145908490372</v>
+        <v>0.2392955626701621</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2679768241203637</v>
+        <v>0.2681348252872844</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1684</v>
@@ -5108,19 +5108,19 @@
         <v>1811855</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1734615</v>
+        <v>1735972</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1895665</v>
+        <v>1885003</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2614537851585402</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2503080276514518</v>
+        <v>0.2505038338860804</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2735477840304449</v>
+        <v>0.2720092739449418</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>78199</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>61348</v>
+        <v>59692</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>98824</v>
+        <v>98062</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02299195583713683</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01803761073979081</v>
+        <v>0.01755069024373952</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02905619913306927</v>
+        <v>0.02883207431049933</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>94</v>
@@ -5158,19 +5158,19 @@
         <v>101385</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>81758</v>
+        <v>82246</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>123732</v>
+        <v>122695</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02873082728144238</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02316884759529217</v>
+        <v>0.02330725476844179</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03506351301695608</v>
+        <v>0.03476967177332926</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>166</v>
@@ -5179,19 +5179,19 @@
         <v>179584</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>153185</v>
+        <v>152168</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>210156</v>
+        <v>209386</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02591425115702278</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02210481759182838</v>
+        <v>0.02195811403859938</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03032583969753486</v>
+        <v>0.03021476490692558</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>18452</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10678</v>
+        <v>11076</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28577</v>
+        <v>29158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01641908970714658</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009501458811750522</v>
+        <v>0.009855930089580602</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02542859353162674</v>
+        <v>0.02594491732963351</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -5544,19 +5544,19 @@
         <v>16671</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9280</v>
+        <v>9175</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27557</v>
+        <v>26252</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01327381142525163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00738863814455563</v>
+        <v>0.007305494239568622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02194106860695759</v>
+        <v>0.02090215114526619</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -5565,19 +5565,19 @@
         <v>35124</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23703</v>
+        <v>25243</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48266</v>
+        <v>51306</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01475913235323008</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009960182169016967</v>
+        <v>0.01060708125315759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02028164240088991</v>
+        <v>0.02155911691219685</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>108586</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89087</v>
+        <v>89209</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>131045</v>
+        <v>130926</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09662158093235287</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07927155896320505</v>
+        <v>0.07937982597792617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1166059805109173</v>
+        <v>0.1165004697835666</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>101</v>
@@ -5615,19 +5615,19 @@
         <v>104829</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85693</v>
+        <v>86390</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126603</v>
+        <v>126800</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08346539637878804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06822924816166108</v>
+        <v>0.06878372640974655</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.100801617807967</v>
+        <v>0.1009586334907897</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>199</v>
@@ -5636,19 +5636,19 @@
         <v>213415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186993</v>
+        <v>186869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>241904</v>
+        <v>243430</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08967825085409495</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07857569526612145</v>
+        <v>0.07852324604710466</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1016494989281503</v>
+        <v>0.1022909130983607</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>530337</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>497193</v>
+        <v>493831</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>566754</v>
+        <v>563366</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4719033985489047</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4424108301001811</v>
+        <v>0.4394194998248848</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5043077219979136</v>
+        <v>0.5012932037614212</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>563</v>
@@ -5686,19 +5686,19 @@
         <v>601293</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>567529</v>
+        <v>566306</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>639177</v>
+        <v>638692</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4787518778859094</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4518685129647906</v>
+        <v>0.4508950421880304</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5089149048426913</v>
+        <v>0.5085290082007644</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1062</v>
@@ -5707,19 +5707,19 @@
         <v>1131631</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1080362</v>
+        <v>1082249</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1179146</v>
+        <v>1177135</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4755177635175132</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4539744575287682</v>
+        <v>0.4547673856757701</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4954838601161992</v>
+        <v>0.4946391101504387</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>428526</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>396814</v>
+        <v>397259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>459150</v>
+        <v>465528</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3813100098855631</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3530917986625738</v>
+        <v>0.3534881194382645</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4085597829213322</v>
+        <v>0.4142352313136575</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>466</v>
@@ -5757,19 +5757,19 @@
         <v>486653</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>453207</v>
+        <v>453473</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>523815</v>
+        <v>523191</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3874747782185338</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3608451005799383</v>
+        <v>0.3610571124507204</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4170638039263015</v>
+        <v>0.4165669569783041</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>879</v>
@@ -5778,19 +5778,19 @@
         <v>915179</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>869765</v>
+        <v>870779</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>967641</v>
+        <v>970763</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3845635383852229</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3654801733720071</v>
+        <v>0.3659062946216891</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4066084328831567</v>
+        <v>0.4079202187373582</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>37925</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26465</v>
+        <v>27767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51483</v>
+        <v>52554</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0337459209260328</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0235487601158155</v>
+        <v>0.02470728879083846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04581013295201391</v>
+        <v>0.0467632521271675</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -5828,19 +5828,19 @@
         <v>46513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35680</v>
+        <v>34535</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64120</v>
+        <v>62394</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03703413609151709</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02840820270573151</v>
+        <v>0.02749724510085482</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05105226245551706</v>
+        <v>0.04967860265509974</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>75</v>
@@ -5849,19 +5849,19 @@
         <v>84438</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>66411</v>
+        <v>66577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>104387</v>
+        <v>103668</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03548131488993889</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02790620205366446</v>
+        <v>0.02797601936273825</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0438640659492478</v>
+        <v>0.0435620255358665</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>7018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2910</v>
+        <v>2861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13686</v>
+        <v>14732</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00773886834382968</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003209192528781742</v>
+        <v>0.003154481947163793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01509168976460174</v>
+        <v>0.01624434855283287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5974,19 +5974,19 @@
         <v>16825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9867</v>
+        <v>9483</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27319</v>
+        <v>26289</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01676942294537206</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009834216937202921</v>
+        <v>0.009452014701213093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02722920716472027</v>
+        <v>0.02620245088987149</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -5995,19 +5995,19 @@
         <v>23843</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15628</v>
+        <v>15062</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34952</v>
+        <v>34764</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01248212272010221</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008181405678342423</v>
+        <v>0.007885175104516362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01829785238563389</v>
+        <v>0.01819947844761606</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>92073</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>76057</v>
+        <v>75331</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>111640</v>
+        <v>112521</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1015278032161539</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08386789148447606</v>
+        <v>0.08306713232241898</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1231045297213574</v>
+        <v>0.1240757788391745</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>108</v>
@@ -6045,19 +6045,19 @@
         <v>112664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>92599</v>
+        <v>92717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>133179</v>
+        <v>135011</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1122913508538297</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09229330425051631</v>
+        <v>0.09241040129078222</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1327385358325854</v>
+        <v>0.1345652190271064</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>196</v>
@@ -6066,19 +6066,19 @@
         <v>204736</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>180235</v>
+        <v>178775</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>236676</v>
+        <v>237849</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1071813036587407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09435475789656332</v>
+        <v>0.09359040491156502</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1239023214936677</v>
+        <v>0.1245163258819049</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>492271</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>463478</v>
+        <v>461642</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>523741</v>
+        <v>522763</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5428242319667638</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5110741863832565</v>
+        <v>0.509049655979072</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5775262184322899</v>
+        <v>0.5764480089933818</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>538</v>
@@ -6116,19 +6116,19 @@
         <v>565410</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>534126</v>
+        <v>529372</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>597309</v>
+        <v>594173</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5635420989287508</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5323616063997743</v>
+        <v>0.5276232112539252</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5953351768344565</v>
+        <v>0.5922100432383308</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1020</v>
@@ -6137,19 +6137,19 @@
         <v>1057681</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1012916</v>
+        <v>1012240</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1098062</v>
+        <v>1103026</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.553706189661554</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.530271112247961</v>
+        <v>0.5299174208541891</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5748458352993355</v>
+        <v>0.5774445352520247</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>300913</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>271862</v>
+        <v>271241</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>328961</v>
+        <v>333164</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.331814996893102</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2997809339694707</v>
+        <v>0.2990959492298462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3627427965424608</v>
+        <v>0.3673781828711496</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>273</v>
@@ -6187,19 +6187,19 @@
         <v>294716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>264943</v>
+        <v>268086</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>325577</v>
+        <v>325762</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2937425207275213</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2640677282523244</v>
+        <v>0.2672003548235353</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3245015477337251</v>
+        <v>0.3246855437345923</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>561</v>
@@ -6208,19 +6208,19 @@
         <v>595629</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>553868</v>
+        <v>553962</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>635400</v>
+        <v>640414</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3118176160946869</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2899552038325412</v>
+        <v>0.2900042130916622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3326377356019619</v>
+        <v>0.3352627039165947</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>14595</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8064</v>
+        <v>8389</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24011</v>
+        <v>23845</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01609409958015056</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00889213931130161</v>
+        <v>0.009250993895690339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02647625154765547</v>
+        <v>0.02629323814962494</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -6258,19 +6258,19 @@
         <v>13700</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7085</v>
+        <v>7745</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22510</v>
+        <v>22793</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01365460654452602</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007061578717983098</v>
+        <v>0.007719292895275454</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02243563298645204</v>
+        <v>0.02271794869122184</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -6279,19 +6279,19 @@
         <v>28295</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19013</v>
+        <v>18612</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41694</v>
+        <v>40329</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01481276786491613</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00995348555493176</v>
+        <v>0.009743655270499307</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02182733865515768</v>
+        <v>0.0211123597813353</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>5368</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12044</v>
+        <v>11953</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00659628794792837</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002567941594167219</v>
+        <v>0.002561033374081216</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01480061445666106</v>
+        <v>0.01468915389765271</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -6404,19 +6404,19 @@
         <v>8452</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4096</v>
+        <v>4058</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16904</v>
+        <v>16758</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01099436848335837</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005328169175220846</v>
+        <v>0.005279362624711629</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02198880625237277</v>
+        <v>0.02179960981538733</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -6425,19 +6425,19 @@
         <v>13820</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8428</v>
+        <v>7739</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23347</v>
+        <v>23054</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008732794970660974</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005325677426257149</v>
+        <v>0.004890698779843643</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01475329136938734</v>
+        <v>0.0145684822863438</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>75294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60478</v>
+        <v>58926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95490</v>
+        <v>93499</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09252790356584673</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07432015892792204</v>
+        <v>0.07241321508483929</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1173467243453757</v>
+        <v>0.1148993332182991</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>71</v>
@@ -6475,19 +6475,19 @@
         <v>75750</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60452</v>
+        <v>60118</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>94347</v>
+        <v>94407</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09853776013455526</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07863770627027906</v>
+        <v>0.07820332132154871</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1227293758902878</v>
+        <v>0.1228069173645934</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>140</v>
@@ -6496,19 +6496,19 @@
         <v>151044</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>127753</v>
+        <v>128467</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>178082</v>
+        <v>176821</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09544738188399582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08072915249360915</v>
+        <v>0.08118028707052868</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1125327746680338</v>
+        <v>0.1117365046769584</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>501996</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>470693</v>
+        <v>472207</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>528995</v>
+        <v>531564</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6168978229101632</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5784294253366962</v>
+        <v>0.5802906160249662</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6500763449488307</v>
+        <v>0.6532329260062387</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>454</v>
@@ -6546,19 +6546,19 @@
         <v>476033</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>446735</v>
+        <v>450366</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>501905</v>
+        <v>505502</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6192354562894045</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5811236994247247</v>
+        <v>0.5858471030811937</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6528898729723838</v>
+        <v>0.6575696647404433</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>938</v>
@@ -6567,19 +6567,19 @@
         <v>978029</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>933772</v>
+        <v>934401</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1014387</v>
+        <v>1013487</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6180334024183348</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5900664151756818</v>
+        <v>0.5904637431021889</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6410086629196889</v>
+        <v>0.6404398065284488</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>219189</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>192996</v>
+        <v>191543</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>245970</v>
+        <v>245433</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2693595284676101</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2371704697501441</v>
+        <v>0.2353852104631369</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3022698643043364</v>
+        <v>0.3016098333816414</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>180</v>
@@ -6617,19 +6617,19 @@
         <v>195357</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>172759</v>
+        <v>170812</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>223067</v>
+        <v>218662</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2541254258881795</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2247290149199233</v>
+        <v>0.2221969289750801</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2901708687163227</v>
+        <v>0.2844408287870059</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>388</v>
@@ -6638,19 +6638,19 @@
         <v>414547</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>380828</v>
+        <v>380746</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>451737</v>
+        <v>449558</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2619590802757718</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.240651900373803</v>
+        <v>0.2405997977403979</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2854606167456833</v>
+        <v>0.2840832950658808</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>11896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6765</v>
+        <v>6171</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20006</v>
+        <v>20739</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0146184571084516</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008313211503558392</v>
+        <v>0.007583567853945646</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02458537546415808</v>
+        <v>0.02548640934280946</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -6688,19 +6688,19 @@
         <v>13151</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7171</v>
+        <v>6890</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22276</v>
+        <v>20517</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0171069892045024</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009328556771692033</v>
+        <v>0.008963177170897341</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02897735035659244</v>
+        <v>0.02668907589088065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -6709,19 +6709,19 @@
         <v>25047</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16851</v>
+        <v>16973</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36337</v>
+        <v>36711</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01582734045123655</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01064872858568983</v>
+        <v>0.01072573699932301</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02296212008752612</v>
+        <v>0.0231980155884682</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>3022</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>899</v>
+        <v>912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8110</v>
+        <v>8409</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005963220919193464</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001773261968234154</v>
+        <v>0.001800749143771904</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01600584759658959</v>
+        <v>0.01659585299389861</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -6834,19 +6834,19 @@
         <v>13980</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7741</v>
+        <v>7597</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23206</v>
+        <v>23657</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02872209521030545</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01590345965790273</v>
+        <v>0.01560781552555645</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04767671140616192</v>
+        <v>0.04860237621327474</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -6855,19 +6855,19 @@
         <v>17002</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9876</v>
+        <v>10042</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27168</v>
+        <v>26947</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01711406265350274</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009941585975972384</v>
+        <v>0.01010838500091249</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02734708117650363</v>
+        <v>0.02712487299598835</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>61133</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>47153</v>
+        <v>47285</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>77120</v>
+        <v>78460</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1206499587838945</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09305972362416037</v>
+        <v>0.09331894044604849</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1521998411683472</v>
+        <v>0.154844064701558</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>49</v>
@@ -6905,19 +6905,19 @@
         <v>53047</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>40933</v>
+        <v>39197</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>69503</v>
+        <v>67661</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.108983050667208</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0840959949531965</v>
+        <v>0.0805285655433078</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1427923165555112</v>
+        <v>0.139008080412814</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>104</v>
@@ -6926,19 +6926,19 @@
         <v>114180</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>96276</v>
+        <v>95759</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>139091</v>
+        <v>136440</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1149336898562742</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09691110764033002</v>
+        <v>0.09639097384366906</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.140008343580798</v>
+        <v>0.1373405525025394</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>324697</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>302985</v>
+        <v>301655</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>345657</v>
+        <v>344236</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6408053282289746</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5979555092852833</v>
+        <v>0.5953314112104388</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6821709525594238</v>
+        <v>0.6793680105769679</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>269</v>
@@ -6976,19 +6976,19 @@
         <v>289023</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>265330</v>
+        <v>265973</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>310826</v>
+        <v>311251</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5937877858385837</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.545111319604773</v>
+        <v>0.546432948937478</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6385828983498961</v>
+        <v>0.639456171396369</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>569</v>
@@ -6997,19 +6997,19 @@
         <v>613719</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>583028</v>
+        <v>579123</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>643974</v>
+        <v>640651</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6177688121330895</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5868744625231911</v>
+        <v>0.582944418878137</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6482227977489575</v>
+        <v>0.6448781151577599</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>108090</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>90161</v>
+        <v>89693</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127679</v>
+        <v>125931</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2133208597482053</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1779374439685702</v>
+        <v>0.1770138967315455</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2519809517952615</v>
+        <v>0.2485311867669606</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>113</v>
@@ -7047,19 +7047,19 @@
         <v>122897</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>102947</v>
+        <v>103949</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>144444</v>
+        <v>143229</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2524883015893326</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2115007409363603</v>
+        <v>0.2135598063013709</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2967545662761581</v>
+        <v>0.2942603633901707</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>218</v>
@@ -7068,19 +7068,19 @@
         <v>230987</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>204360</v>
+        <v>207213</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>257790</v>
+        <v>262304</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2325111737998426</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2057082547034712</v>
+        <v>0.2085802836785372</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2594913015914999</v>
+        <v>0.2640351634876891</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>9759</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4398</v>
+        <v>4479</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18517</v>
+        <v>18046</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01926063231973211</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008680524687710484</v>
+        <v>0.008840442726816918</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03654464798666331</v>
+        <v>0.03561397065179332</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -7118,19 +7118,19 @@
         <v>7797</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3893</v>
+        <v>3850</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15578</v>
+        <v>14646</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01601876669457026</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007998762182237018</v>
+        <v>0.007910338833093339</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03200443898113017</v>
+        <v>0.03009033714094788</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -7139,19 +7139,19 @@
         <v>17556</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10222</v>
+        <v>10914</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28216</v>
+        <v>28176</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01767226155729089</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01028955775214525</v>
+        <v>0.01098608361667633</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02840189058749161</v>
+        <v>0.0283616834157317</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>33860</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22389</v>
+        <v>23416</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>46364</v>
+        <v>45505</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01010390524301693</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006681013362485604</v>
+        <v>0.006987606557367446</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01383527581167552</v>
+        <v>0.01357895683200508</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>52</v>
@@ -7264,19 +7264,19 @@
         <v>55929</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>43328</v>
+        <v>41637</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74096</v>
+        <v>72764</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01591246991495413</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01232749333956564</v>
+        <v>0.01184622904153303</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02108137599915915</v>
+        <v>0.02070240515307243</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>84</v>
@@ -7285,19 +7285,19 @@
         <v>89788</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>71434</v>
+        <v>69794</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>109678</v>
+        <v>108391</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01307739980352594</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01040423355097525</v>
+        <v>0.01016537553146361</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0159742376355195</v>
+        <v>0.01578686301959138</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>337086</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>301726</v>
+        <v>301475</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>372287</v>
+        <v>375312</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1005883810766603</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09003686238718676</v>
+        <v>0.08996180589566927</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1110927537014515</v>
+        <v>0.1119953477641306</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>329</v>
@@ -7335,19 +7335,19 @@
         <v>346290</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>310155</v>
+        <v>310684</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>385848</v>
+        <v>379120</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09852441359725489</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08824353849015906</v>
+        <v>0.08839411459598379</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1097793358606658</v>
+        <v>0.1078651099856233</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>639</v>
@@ -7356,19 +7356,19 @@
         <v>683376</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>630923</v>
+        <v>629329</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>733398</v>
+        <v>729303</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09953180403573832</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09189222580127122</v>
+        <v>0.09166010825146675</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1068174101126532</v>
+        <v>0.1062209628358872</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>1849301</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1794313</v>
+        <v>1790449</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1910233</v>
+        <v>1907252</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5518424499210486</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5354335810116778</v>
+        <v>0.5342806130207527</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5700247609343632</v>
+        <v>0.5691353021958966</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1824</v>
@@ -7406,19 +7406,19 @@
         <v>1931759</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1869413</v>
+        <v>1874559</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1990425</v>
+        <v>1997614</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5496130378012892</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5318747503307971</v>
+        <v>0.533338743850629</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5663043472117285</v>
+        <v>0.568349791922387</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3589</v>
@@ -7427,19 +7427,19 @@
         <v>3781060</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3693050</v>
+        <v>3704082</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3865512</v>
+        <v>3861699</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5507011791965847</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.537882750936804</v>
+        <v>0.5394895409176017</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5630013870944482</v>
+        <v>0.5624460238138671</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>1056718</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1002216</v>
+        <v>999466</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1112220</v>
+        <v>1112167</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3153310502009729</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2990672554309617</v>
+        <v>0.2982467156368204</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3318929966703633</v>
+        <v>0.3318773162306671</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1032</v>
@@ -7477,19 +7477,19 @@
         <v>1099623</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1044302</v>
+        <v>1036639</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1158552</v>
+        <v>1151251</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3128585646347204</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2971187579893796</v>
+        <v>0.2949386606918828</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3296246608643948</v>
+        <v>0.3275474894097967</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2046</v>
@@ -7498,19 +7498,19 @@
         <v>2156342</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2085127</v>
+        <v>2076160</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2235700</v>
+        <v>2235915</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3140653464002202</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3036931575731536</v>
+        <v>0.3023870256297493</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3256236452624655</v>
+        <v>0.3256549671107922</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>74175</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59377</v>
+        <v>58262</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>92150</v>
+        <v>95230</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02213421355830119</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01771843897613874</v>
+        <v>0.0173858221173645</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02749813264001001</v>
+        <v>0.02841707299193039</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>74</v>
@@ -7548,19 +7548,19 @@
         <v>81161</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>64320</v>
+        <v>63614</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>101355</v>
+        <v>100638</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02309151405178141</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01830006647442199</v>
+        <v>0.01809897622330886</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02883696256398569</v>
+        <v>0.02863308134495498</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>143</v>
@@ -7569,19 +7569,19 @@
         <v>155336</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>132142</v>
+        <v>131027</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>184959</v>
+        <v>182121</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02262427056393089</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01924615148517123</v>
+        <v>0.01908371630852043</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02693878282744041</v>
+        <v>0.02652541232502922</v>
       </c>
     </row>
     <row r="33">
